--- a/Tecnologia da informação/Backlog - Harry Potter.xlsx
+++ b/Tecnologia da informação/Backlog - Harry Potter.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b951b5393c7c3979/Documentos/harry potter pi/site-harry-potter/Tecnologia da informação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF20829F-FBB3-4C62-84D8-88394E8ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{BF20829F-FBB3-4C62-84D8-88394E8ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0734A671-6C6C-4CA2-AFD1-AA96B425A340}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1CCCD33-5DCF-476E-AE84-EE33DDC552B2}"/>
+    <workbookView xWindow="14928" yWindow="0" windowWidth="8208" windowHeight="12336" xr2:uid="{F1CCCD33-5DCF-476E-AE84-EE33DDC552B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$H$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Requisitos</t>
   </si>
@@ -56,9 +59,6 @@
     <t>Prioridade</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -71,27 +71,18 @@
     <t>Criar do git hub</t>
   </si>
   <si>
-    <t xml:space="preserve">Criar um repositório no git hub para hospedar o código </t>
-  </si>
-  <si>
     <t>Criar o trello</t>
   </si>
   <si>
     <t>Criar modelagem lógica no banco de dados</t>
   </si>
   <si>
-    <t>Criar o script no banco de dados</t>
-  </si>
-  <si>
     <t>Criar a pagina home</t>
   </si>
   <si>
     <t>Criar aba de cadastro e login</t>
   </si>
   <si>
-    <t>Criar quis das casas</t>
-  </si>
-  <si>
     <t>Criar aba para cada casa</t>
   </si>
   <si>
@@ -99,13 +90,133 @@
   </si>
   <si>
     <t>Criar a Dashboard</t>
+  </si>
+  <si>
+    <t>Criar quiz das casas</t>
+  </si>
+  <si>
+    <t>Contendo contexto, objetivo, justificativa, escopo, premissas e restrições.</t>
+  </si>
+  <si>
+    <t>Criar um repositório no git hub para hospedar o código.</t>
+  </si>
+  <si>
+    <t>Para gerenciar o meu processo e armazenar as atividades feitas no dia.</t>
+  </si>
+  <si>
+    <t>Criação da modelagem lógica das tabelas</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Criação de páginas de cada casa de hogwarts para o usuário acessar</t>
+  </si>
+  <si>
+    <t>Criar comandos no SQL</t>
+  </si>
+  <si>
+    <t>Para visualização das tabelas juntas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar protótipo do site </t>
+  </si>
+  <si>
+    <t>Criação do  protótipo para melhor visualização do site</t>
+  </si>
+  <si>
+    <t>Criar diagrama de solução técnica</t>
+  </si>
+  <si>
+    <t>Criar diagrama de visão de negócio</t>
+  </si>
+  <si>
+    <t>Criar banco de dados</t>
+  </si>
+  <si>
+    <t>Criação das tabelas no MySQL</t>
+  </si>
+  <si>
+    <t>Instalar a Virtual Box Lubuntu</t>
+  </si>
+  <si>
+    <t>Instalação da virtual box na máquina</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A fazer</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Pontos Fibonacci</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Criação da página que o usuário tem maior visualizção do site</t>
+  </si>
+  <si>
+    <t>Criação das abas para o cliente poder se cadastrar</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Inserir o banco de dados na Vm Lubuntu</t>
+  </si>
+  <si>
+    <t>Criação do diagrama de solução técnica para entender o funcionamento técnico</t>
+  </si>
+  <si>
+    <t>Criação do diagrama de visão de negócio para visualização simples do funcionamento</t>
+  </si>
+  <si>
+    <t>Criação do quiz para o usuário descibrir qual casa será selecionado</t>
+  </si>
+  <si>
+    <t>Visualização das kpis e os gráficos sobre idade dos fãs, quantas pessoas fizeram o quiz.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +239,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +264,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF003300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,11 +368,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,6 +435,978 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de BurnDown</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pontos Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F18C-45CB-A9CD-9F1BBF031595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planejado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F18C-45CB-A9CD-9F1BBF031595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="991014656"/>
+        <c:axId val="991019936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="991014656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991019936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="991019936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991014656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>347663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>576263</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E688F1-0591-FAF3-00C4-0AEF9E71574B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,35 +1726,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D153E630-EFD3-45D2-A1CD-DE09409910D0}">
-  <dimension ref="A1:H13"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="24" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+    <row r="1" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,71 +1779,542 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6">
+        <f>SUMIF(G:G,1,E:E)</f>
+        <v>39</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="6">
+        <f>SUMIF(G:G,2,E:E)</f>
+        <v>55</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="6">
+        <f>K6</f>
+        <v>118</v>
+      </c>
+      <c r="O3" s="6">
+        <f>N3</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6">
+        <f>SUMIF(G:G,3,E:E)</f>
+        <v>24</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="6">
+        <f>K2</f>
+        <v>39</v>
+      </c>
+      <c r="O4" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="M5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="6">
+        <f>K3</f>
+        <v>55</v>
+      </c>
+      <c r="O5" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="6">
+        <f>SUM(K2:K4)</f>
+        <v>118</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="6">
+        <f>K4</f>
+        <v>24</v>
+      </c>
+      <c r="O6" s="6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="6">
+        <f>K6/3</f>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="10" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="11" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="13" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="14" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
+    <row r="15" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
+    <row r="16" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
+    <row r="17" spans="1:8" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
+    <row r="18" spans="1:8" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
+    <row r="19" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A2:H18" xr:uid="{D153E630-EFD3-45D2-A1CD-DE09409910D0}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
@@ -714,5 +2330,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tecnologia da informação/Backlog - Harry Potter.xlsx
+++ b/Tecnologia da informação/Backlog - Harry Potter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b951b5393c7c3979/Documentos/harry potter pi/site-harry-potter/Tecnologia da informação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{BF20829F-FBB3-4C62-84D8-88394E8ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0734A671-6C6C-4CA2-AFD1-AA96B425A340}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{BF20829F-FBB3-4C62-84D8-88394E8ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B3D270C-6ACD-4BE6-8178-0AA23D9544A3}"/>
   <bookViews>
-    <workbookView xWindow="14928" yWindow="0" windowWidth="8208" windowHeight="12336" xr2:uid="{F1CCCD33-5DCF-476E-AE84-EE33DDC552B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1CCCD33-5DCF-476E-AE84-EE33DDC552B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,7 +380,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,9 +547,21 @@
               <c:f>Planilha1!$N$3:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,9 +604,21 @@
               <c:f>Planilha1!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,11 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D153E630-EFD3-45D2-A1CD-DE09409910D0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,16 +1770,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1799,7 +1821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1843,7 @@
       <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -1843,7 +1865,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1865,7 +1887,7 @@
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -1886,7 +1908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1908,13 +1930,16 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="6">
+        <f>SUMIF(G:G,4,E:E)</f>
+        <v>13</v>
+      </c>
       <c r="M5" s="8" t="s">
         <v>43</v>
       </c>
@@ -1948,7 +1973,7 @@
       <c r="G6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -1991,7 +2016,7 @@
       <c r="G7" s="5">
         <v>3</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -2004,8 +2029,13 @@
       <c r="M7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="N7" s="6">
+        <f>K5</f>
+        <v>13</v>
+      </c>
+      <c r="O7" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -2029,11 +2059,11 @@
       <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -2055,11 +2085,11 @@
       <c r="G9" s="5">
         <v>2</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2081,11 +2111,11 @@
       <c r="G10" s="5">
         <v>2</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2107,11 +2137,11 @@
       <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -2133,11 +2163,11 @@
       <c r="G12" s="5">
         <v>2</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2159,11 +2189,11 @@
       <c r="G13" s="5">
         <v>4</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2185,11 +2215,11 @@
       <c r="G14" s="5">
         <v>2</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -2211,11 +2241,11 @@
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -2237,11 +2267,11 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -2263,11 +2293,11 @@
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="49.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -2289,7 +2319,7 @@
       <c r="G18" s="5">
         <v>2</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2308,13 +2338,6 @@
     <row r="31" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A2:H18" xr:uid="{D153E630-EFD3-45D2-A1CD-DE09409910D0}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/Tecnologia da informação/Backlog - Harry Potter.xlsx
+++ b/Tecnologia da informação/Backlog - Harry Potter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b951b5393c7c3979/Documentos/harry potter pi/site-harry-potter/Tecnologia da informação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{BF20829F-FBB3-4C62-84D8-88394E8ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B3D270C-6ACD-4BE6-8178-0AA23D9544A3}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{BF20829F-FBB3-4C62-84D8-88394E8ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDFF723-A6FA-4E25-878A-0F19F74BA2DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1CCCD33-5DCF-476E-AE84-EE33DDC552B2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$2:$H$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <t>Requisitos</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Visualização das kpis e os gráficos sobre idade dos fãs, quantas pessoas fizeram o quiz.</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>Quiz de feitiços</t>
+  </si>
+  <si>
+    <t>Realizar um quiz para o usuário adivinhar o que cada feitço faz</t>
   </si>
 </sst>
 </file>
@@ -549,19 +558,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>118</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,7 +615,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>118</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
@@ -1426,10 +1435,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1751,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D153E630-EFD3-45D2-A1CD-DE09409910D0}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1851,18 +1856,18 @@
       </c>
       <c r="K3" s="6">
         <f>SUMIF(G:G,2,E:E)</f>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="N3" s="6">
         <f>K6</f>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O3" s="6">
         <f>N3</f>
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1937,15 +1942,15 @@
         <v>45</v>
       </c>
       <c r="K5" s="6">
-        <f>SUMIF(G:G,4,E:E)</f>
-        <v>13</v>
+        <f>SUMIF(G:G,3,E:E)</f>
+        <v>24</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="N5" s="6">
         <f>K3</f>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O5" s="6">
         <v>42</v>
@@ -1981,7 +1986,7 @@
       </c>
       <c r="K6" s="6">
         <f>SUM(K2:K4)</f>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>44</v>
@@ -2024,14 +2029,14 @@
       </c>
       <c r="K7" s="6">
         <f>K6/3</f>
-        <v>39.333333333333336</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="N7" s="6">
         <f>K5</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="O7" s="6">
         <v>10</v>
@@ -2123,7 +2128,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>51</v>
@@ -2158,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5">
         <v>2</v>
@@ -2279,10 +2284,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -2323,7 +2325,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
